--- a/locations.xlsx
+++ b/locations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>location</t>
   </si>
@@ -28,7 +28,208 @@
     <t>CSULB</t>
   </si>
   <si>
-    <t/>
+    <t>https://www.instagram.com/explore/locations/387112373/alpha-delta-pi-sorority/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/2398715/usc-kappa-kappa-gamma/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/2918521/usc-phi-sigma-kappa/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/4366875/usc-alpha-chi-omega/?next=%2F&amp;hl=uk</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/239719161/usc-kappa-alpha-theta/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/222492989/usc-gamma-phi-beta/?next=%2F&amp;hl=uk</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/4501773/usc-pi-beta-phi/?next=%2F&amp;hl=uk</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/1870769269870095/gamma-phi-beta-csulb/?next=%2F&amp;hl=uk</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/620534684/delta-gamma-csulb/?next=%2F&amp;hl=uk</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/620534684/delta-gamma-csulb/?hl=uk</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/742692814/tri-delta-csulb/?hl=uk</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/391509311/alpha-phi-csulb/?next=%2F&amp;hl=uk</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/270553218/csulb-alpha-phi-omega/?next=%2F&amp;hl=uk</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/4887416/ucla-kappa-delta/</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/271162815/ucla-chi-omega/?hl=uk</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/4887416/ucla-kappa-delta/?hl=uk</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/213520265/ucla-sigma-phi-epsilon/?hl=uk</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/240945556/ucla-kappa-alpha-theta/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/259023150/ucla-alpha-chi-omega/?hl=uk</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/191182084260220/ucla-phi-kappa-psi/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/49289509/ucla-phi-sigma-rho/?hl=uk</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/259023150/ucla-alpha-chi-omega/?next=%2F&amp;hl=uk</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/238890867/ucla-alpha-delta-pi/?next=%2F&amp;hl=uk</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/425804994/ucla-delta-gamma/?next=%2F&amp;hl=uk</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/108084144002/ucla-alpha-delta-chi/?next=%2F&amp;hl=uk</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/11447125/ucla-sigma-alpha-epsilon/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/240945556/ucla-kappa-alpha-theta/?next=%2F&amp;hl=uk</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/5678075/ucla-theta-xi/?next=%2F&amp;hl=uk</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/8100346/ucla-pi-beta-phi/?next=%2F&amp;hl=uk</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/402915861/pepperdine-delta-gamma/</t>
+  </si>
+  <si>
+    <t>Pepperdine</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/429562396/kappa-alpha-theta-pepperdine-university/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/1015807524/tri-delta-pepperdine-university/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/586886203/chi-omega-loyola-university-chicago/?hl=uk</t>
+  </si>
+  <si>
+    <t>Loyola</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/650321307/delta-gamma-loyola-university-new-orleans/?hl=uk</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/30444085/alpha-kappa-alpha-sorority-incorporated/?hl=uk</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/1033021038/gamma-phi-beta-loyola-university-new-orleans/?hl=uk</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/744815753/pepperdine-alpha-kappa-psi-omega-epsilon-chapter/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/4366875/usc-alpha-chi-omega/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/567858130/ucla-alpha-phi-omega-chi-chapter/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/7835752/alpha-gamma-omega-ucla/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/5624371/lambda-chi-alpha-at-ucla/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/214176817/lambda-chi-alpha-usc/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/576924493/usc-alpha-rho-chi-andronicus-chapter/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/108084144002/ucla-alpha-delta-chi/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/110641853822094/usc-alpha-epsilon-omega/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/195842457133225/alpha-omega-usc-school-of-dentistry/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/5860283/usc-alpha-delta-pi/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/238890867/ucla-alpha-delta-pi/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/266389545/alpha-gamma-delta-at-usc/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/259023150/ucla-alpha-chi-omega/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/5962313/usc-delta-chi/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/848046388/delta-sigma-delta-chi-chapter-usc/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/430472730/ucla-alpha-epsilon-pi/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/289220241/ucla-delta-sigma-pi/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/40944060/usc-pi-kappa-alpha-house/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/214585400/usc-alpha-phi/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/213520265/ucla-sigma-phi-epsilon/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/425804994/ucla-delta-gamma/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/4636532/usc-delta-gamma/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/263694922/ucla-pi-kappa-alpha-pike/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/10628740/usc-sigma-alpha-mu-sammy/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/6223378/usc-pi-kappa-phi/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/241456797/usc-phi-delta-theta/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/11685084/ucla-delta-sigma-phi/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/261148408/phi-kappa-sigma-at-ucla/</t>
   </si>
 </sst>
 </file>
@@ -85,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -95,15 +296,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -416,8 +608,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="107.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="107.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="11.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -437,398 +629,398 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
+      <c r="A4" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
+      <c r="A5" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
+      <c r="A6" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
+      <c r="A7" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
+      <c r="A8" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="4" t="s">
-        <v>4</v>
+      <c r="A9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="4" t="s">
-        <v>4</v>
+      <c r="A10" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="4" t="s">
-        <v>4</v>
+      <c r="A11" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="4" t="s">
-        <v>4</v>
+      <c r="A12" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="4" t="s">
-        <v>4</v>
+      <c r="A13" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="4" t="s">
-        <v>4</v>
+      <c r="A14" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="4" t="s">
-        <v>4</v>
+      <c r="A15" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>4</v>
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="4" t="s">
-        <v>4</v>
+      <c r="A17" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B17" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="4" t="s">
-        <v>4</v>
+      <c r="A18" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B18" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="4" t="s">
-        <v>4</v>
+      <c r="A19" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B19" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="4" t="s">
-        <v>4</v>
+      <c r="A20" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="4" t="s">
-        <v>4</v>
+      <c r="A21" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="4" t="s">
-        <v>4</v>
+      <c r="A22" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B22" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="4" t="s">
-        <v>4</v>
+      <c r="A23" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B23" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="4" t="s">
-        <v>4</v>
+      <c r="A24" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B24" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
-      <c r="A25" s="4" t="s">
-        <v>4</v>
+      <c r="A25" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B25" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
-      <c r="A26" s="4" t="s">
-        <v>4</v>
+      <c r="A26" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B26" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
-      <c r="A27" s="4" t="s">
-        <v>4</v>
+      <c r="A27" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B27" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="4" t="s">
-        <v>4</v>
+      <c r="A28" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B28" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="4" t="s">
-        <v>4</v>
+      <c r="A29" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="4" t="s">
-        <v>4</v>
+      <c r="A30" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B30" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="4" t="s">
-        <v>4</v>
+      <c r="A31" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B31" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>4</v>
+      <c r="A32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="4" t="s">
-        <v>4</v>
+      <c r="A33" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B33" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="4" t="s">
-        <v>4</v>
+      <c r="A34" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B34" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>4</v>
+      <c r="A35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="4" t="s">
-        <v>4</v>
+      <c r="A36" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B36" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="4" t="s">
-        <v>4</v>
+      <c r="A37" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B37" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="4" t="s">
-        <v>4</v>
+      <c r="A38" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B38" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="4" t="s">
-        <v>4</v>
+      <c r="A39" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B39" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="6" t="s">
-        <v>4</v>
+      <c r="A40" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B40" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="6" t="s">
-        <v>4</v>
+      <c r="A41" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B41" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="6" t="s">
-        <v>4</v>
+      <c r="A42" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B42" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="6" t="s">
-        <v>4</v>
+      <c r="A43" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B43" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="6" t="s">
-        <v>4</v>
+      <c r="A44" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B44" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="6" t="s">
-        <v>4</v>
+      <c r="A45" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B45" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="6" t="s">
-        <v>4</v>
+      <c r="A46" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B46" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="6" t="s">
-        <v>4</v>
+      <c r="A47" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B47" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="6" t="s">
-        <v>4</v>
+      <c r="A48" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B48" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="6" t="s">
-        <v>4</v>
+      <c r="A49" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B49" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="6" t="s">
-        <v>4</v>
+      <c r="A50" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B50" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="6" t="s">
-        <v>4</v>
+      <c r="A51" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B51" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="6" t="s">
-        <v>4</v>
+      <c r="A52" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B52" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="6" t="s">
-        <v>4</v>
+      <c r="A53" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B53" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="6" t="s">
-        <v>4</v>
+      <c r="A54" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B54" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="6" t="s">
-        <v>4</v>
+      <c r="A55" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B55" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="6" t="s">
-        <v>4</v>
+      <c r="A56" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B56" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="6" t="s">
-        <v>4</v>
+      <c r="A57" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B57" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="6" t="s">
-        <v>4</v>
+      <c r="A58" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B58" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="6" t="s">
-        <v>4</v>
+      <c r="A59" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B59" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="6" t="s">
-        <v>4</v>
+      <c r="A60" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B60" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="6" t="s">
-        <v>4</v>
+      <c r="A61" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B61" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="6" t="s">
-        <v>4</v>
+      <c r="A62" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B62" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="6" t="s">
-        <v>4</v>
+      <c r="A63" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B63" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="6" t="s">
-        <v>4</v>
+      <c r="A64" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B64" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="6" t="s">
-        <v>4</v>
+      <c r="A65" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B65" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="6" t="s">
-        <v>4</v>
+      <c r="A66" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B66" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="6" t="s">
-        <v>4</v>
+      <c r="A67" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B67" s="1"/>
     </row>

--- a/locations.xlsx
+++ b/locations.xlsx
@@ -7,42 +7,132 @@
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet r:id="rId1" sheetId="1" name="soro2"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>location</t>
   </si>
   <si>
-    <t>other</t>
+    <t>https://www.instagram.com/explore/locations/4366875/usc-alpha-chi-omega/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/567858130/ucla-alpha-phi-omega-chi-chapter/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/7835752/alpha-gamma-omega-ucla/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/5624371/lambda-chi-alpha-at-ucla/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/214176817/lambda-chi-alpha-usc/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/576924493/usc-alpha-rho-chi-andronicus-chapter/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/108084144002/ucla-alpha-delta-chi/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/110641853822094/usc-alpha-epsilon-omega/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/195842457133225/alpha-omega-usc-school-of-dentistry/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/5860283/usc-alpha-delta-pi/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/238890867/ucla-alpha-delta-pi/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/266389545/alpha-gamma-delta-at-usc/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/259023150/ucla-alpha-chi-omega/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/5962313/usc-delta-chi/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/848046388/delta-sigma-delta-chi-chapter-usc/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/430472730/ucla-alpha-epsilon-pi/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/289220241/ucla-delta-sigma-pi/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/40944060/usc-pi-kappa-alpha-house/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/214585400/usc-alpha-phi/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/11447125/ucla-sigma-alpha-epsilon/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/213520265/ucla-sigma-phi-epsilon/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/425804994/ucla-delta-gamma/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/4636532/usc-delta-gamma/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/239719161/usc-kappa-alpha-theta/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/240945556/ucla-kappa-alpha-theta/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/263694922/ucla-pi-kappa-alpha-pike/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/10628740/usc-sigma-alpha-mu-sammy/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/4887416/ucla-kappa-delta/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/2918521/usc-phi-sigma-kappa/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/6223378/usc-pi-kappa-phi/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/191182084260220/ucla-phi-kappa-psi/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/241456797/usc-phi-delta-theta/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/11685084/ucla-delta-sigma-phi/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/261148408/phi-kappa-sigma-at-ucla/</t>
   </si>
   <si>
     <t>https://www.instagram.com/explore/locations/370788954/usc-delta-delta-delta/</t>
   </si>
   <si>
-    <t>CSULB</t>
-  </si>
-  <si>
     <t>https://www.instagram.com/explore/locations/387112373/alpha-delta-pi-sorority/</t>
   </si>
   <si>
     <t>https://www.instagram.com/explore/locations/2398715/usc-kappa-kappa-gamma/</t>
   </si>
   <si>
-    <t>https://www.instagram.com/explore/locations/2918521/usc-phi-sigma-kappa/</t>
-  </si>
-  <si>
     <t>https://www.instagram.com/explore/locations/4366875/usc-alpha-chi-omega/?next=%2F&amp;hl=uk</t>
   </si>
   <si>
-    <t>https://www.instagram.com/explore/locations/239719161/usc-kappa-alpha-theta/</t>
-  </si>
-  <si>
     <t>https://www.instagram.com/explore/locations/222492989/usc-gamma-phi-beta/?next=%2F&amp;hl=uk</t>
   </si>
   <si>
@@ -67,12 +157,6 @@
     <t>https://www.instagram.com/explore/locations/270553218/csulb-alpha-phi-omega/?next=%2F&amp;hl=uk</t>
   </si>
   <si>
-    <t>https://www.instagram.com/explore/locations/4887416/ucla-kappa-delta/</t>
-  </si>
-  <si>
-    <t>UCLA</t>
-  </si>
-  <si>
     <t>https://www.instagram.com/explore/locations/271162815/ucla-chi-omega/?hl=uk</t>
   </si>
   <si>
@@ -82,15 +166,9 @@
     <t>https://www.instagram.com/explore/locations/213520265/ucla-sigma-phi-epsilon/?hl=uk</t>
   </si>
   <si>
-    <t>https://www.instagram.com/explore/locations/240945556/ucla-kappa-alpha-theta/</t>
-  </si>
-  <si>
     <t>https://www.instagram.com/explore/locations/259023150/ucla-alpha-chi-omega/?hl=uk</t>
   </si>
   <si>
-    <t>https://www.instagram.com/explore/locations/191182084260220/ucla-phi-kappa-psi/</t>
-  </si>
-  <si>
     <t>https://www.instagram.com/explore/locations/49289509/ucla-phi-sigma-rho/?hl=uk</t>
   </si>
   <si>
@@ -106,9 +184,6 @@
     <t>https://www.instagram.com/explore/locations/108084144002/ucla-alpha-delta-chi/?next=%2F&amp;hl=uk</t>
   </si>
   <si>
-    <t>https://www.instagram.com/explore/locations/11447125/ucla-sigma-alpha-epsilon/</t>
-  </si>
-  <si>
     <t>https://www.instagram.com/explore/locations/240945556/ucla-kappa-alpha-theta/?next=%2F&amp;hl=uk</t>
   </si>
   <si>
@@ -121,9 +196,6 @@
     <t>https://www.instagram.com/explore/locations/402915861/pepperdine-delta-gamma/</t>
   </si>
   <si>
-    <t>Pepperdine</t>
-  </si>
-  <si>
     <t>https://www.instagram.com/explore/locations/429562396/kappa-alpha-theta-pepperdine-university/</t>
   </si>
   <si>
@@ -133,9 +205,6 @@
     <t>https://www.instagram.com/explore/locations/586886203/chi-omega-loyola-university-chicago/?hl=uk</t>
   </si>
   <si>
-    <t>Loyola</t>
-  </si>
-  <si>
     <t>https://www.instagram.com/explore/locations/650321307/delta-gamma-loyola-university-new-orleans/?hl=uk</t>
   </si>
   <si>
@@ -148,88 +217,67 @@
     <t>https://www.instagram.com/explore/locations/744815753/pepperdine-alpha-kappa-psi-omega-epsilon-chapter/</t>
   </si>
   <si>
-    <t>https://www.instagram.com/explore/locations/4366875/usc-alpha-chi-omega/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/explore/locations/567858130/ucla-alpha-phi-omega-chi-chapter/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/explore/locations/7835752/alpha-gamma-omega-ucla/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/explore/locations/5624371/lambda-chi-alpha-at-ucla/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/explore/locations/214176817/lambda-chi-alpha-usc/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/explore/locations/576924493/usc-alpha-rho-chi-andronicus-chapter/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/explore/locations/108084144002/ucla-alpha-delta-chi/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/explore/locations/110641853822094/usc-alpha-epsilon-omega/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/explore/locations/195842457133225/alpha-omega-usc-school-of-dentistry/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/explore/locations/5860283/usc-alpha-delta-pi/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/explore/locations/238890867/ucla-alpha-delta-pi/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/explore/locations/266389545/alpha-gamma-delta-at-usc/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/explore/locations/259023150/ucla-alpha-chi-omega/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/explore/locations/5962313/usc-delta-chi/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/explore/locations/848046388/delta-sigma-delta-chi-chapter-usc/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/explore/locations/430472730/ucla-alpha-epsilon-pi/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/explore/locations/289220241/ucla-delta-sigma-pi/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/explore/locations/40944060/usc-pi-kappa-alpha-house/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/explore/locations/214585400/usc-alpha-phi/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/explore/locations/213520265/ucla-sigma-phi-epsilon/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/explore/locations/425804994/ucla-delta-gamma/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/explore/locations/4636532/usc-delta-gamma/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/explore/locations/263694922/ucla-pi-kappa-alpha-pike/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/explore/locations/10628740/usc-sigma-alpha-mu-sammy/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/explore/locations/6223378/usc-pi-kappa-phi/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/explore/locations/241456797/usc-phi-delta-theta/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/explore/locations/11685084/ucla-delta-sigma-phi/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/explore/locations/261148408/phi-kappa-sigma-at-ucla/</t>
+    <t>https://www.instagram.com/explore/locations/6943980/zeta-tau-zeta-occidental-college/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/392410054148097/the-sigma-chi-fraternity-delta-eta-chapter/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/1870000/alpha-tau-omega-zeta-beta-chapter/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/437216072997813/theta-kappa-phi/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/1027666319/alpha-omicron-pi-sigma-phi/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/1029012049/lmu-kappa-alpha-theta/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/115152811895282/alpha-sigma-tau-gamma-upsilon/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/1921029284849205/sigma-nu-usc/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/252491288/alpha-lambda-phi-alpha-occidental-college/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/851522058/csun-sigma-alpha-epsilon-pi-omicron-chapter/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/1019042712/alpha-phi-beta-delta-chapter/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/8100346/ucla-pi-beta-phi/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/60862/phi-kappa-psi/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/266389545/alpha-gamma-delta-at-usc/?next=%2F</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/392410054148097/the-sigma-chi-fraternity-delta-eta-chapter/?next=%2F</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/222492989/usc-gamma-phi-beta/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/338847539534037/sigma-alpha-iota-gamma-upsilon-chapter/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/8900840/csun-delta-delta-delta/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/262110415/theta-phi-alpha-gamma-omega/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/271162815/ucla-chi-omega/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/1021845332/alpha-omega-epsilon-ae-usc/</t>
   </si>
 </sst>
 </file>
@@ -246,16 +294,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF001e00"/>
-      <name val="Arial"/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -286,11 +334,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -298,7 +343,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -331,7 +376,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -343,7 +388,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -602,427 +647,454 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:A88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="107.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="109.14785714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
-      <c r="A25" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
-      <c r="A26" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
-      <c r="A27" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="20.25">
+      <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="20.25">
+      <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="20.25">
+      <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="20.25">
+      <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="20.25">
+      <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="20.25">
+      <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="20.25">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="20.25">
+      <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="20.25">
+      <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="20.25">
+      <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="20.25">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="20.25">
+      <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="20.25">
+      <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="20.25">
+      <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="20.25">
+      <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="20.25">
+      <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="20.25">
+      <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="20.25">
+      <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="20.25">
+      <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="20.25">
+      <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="20.25">
+      <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+      <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+      <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+      <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+      <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+      <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+      <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+      <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+      <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+      <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+      <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+      <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+      <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+      <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+      <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+      <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+      <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+      <c r="A73" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+      <c r="A74" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+      <c r="A75" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+      <c r="A76" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+      <c r="A77" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+      <c r="A78" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+      <c r="A79" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+      <c r="A80" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+      <c r="A81" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+      <c r="A82" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+      <c r="A83" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+      <c r="A84" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+      <c r="A85" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+      <c r="A86" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+      <c r="A87" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+      <c r="A88" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
